--- a/tests/vlaanderen/reference/resultaten/werk/concurrentie/inwoners/restdag/Ontpl_conc_Auto.xlsx
+++ b/tests/vlaanderen/reference/resultaten/werk/concurrentie/inwoners/restdag/Ontpl_conc_Auto.xlsx
@@ -388,16 +388,16 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>2.835776561590235</v>
+        <v>2.828655049581922</v>
       </c>
       <c r="C2">
-        <v>1.777646533408459</v>
+        <v>1.773799324762276</v>
       </c>
       <c r="D2">
-        <v>1.495044649837059</v>
+        <v>1.493186813606976</v>
       </c>
       <c r="E2">
-        <v>1.324310289510515</v>
+        <v>1.320195973509991</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -405,16 +405,16 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>2.892284530081745</v>
+        <v>2.883834815612763</v>
       </c>
       <c r="C3">
-        <v>1.794730181062973</v>
+        <v>1.790830877570518</v>
       </c>
       <c r="D3">
-        <v>1.503526540733673</v>
+        <v>1.500165029430642</v>
       </c>
       <c r="E3">
-        <v>1.329052695287818</v>
+        <v>1.325315907228027</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -422,16 +422,16 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>3.027151115066018</v>
+        <v>3.01732006345383</v>
       </c>
       <c r="C4">
-        <v>1.866309367515333</v>
+        <v>1.860444782376231</v>
       </c>
       <c r="D4">
-        <v>1.552147142994084</v>
+        <v>1.549274810175597</v>
       </c>
       <c r="E4">
-        <v>1.369444144067564</v>
+        <v>1.36634262392983</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -439,16 +439,16 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>3.388014036056305</v>
+        <v>3.380719459040112</v>
       </c>
       <c r="C5">
-        <v>2.00222364455488</v>
+        <v>1.998626836058858</v>
       </c>
       <c r="D5">
-        <v>1.603692967025184</v>
+        <v>1.601553576152952</v>
       </c>
       <c r="E5">
-        <v>1.412678436293289</v>
+        <v>1.409259220543114</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -456,16 +456,16 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>3.370458359472038</v>
+        <v>3.364883251118721</v>
       </c>
       <c r="C6">
-        <v>2.000669939856117</v>
+        <v>1.996492174193518</v>
       </c>
       <c r="D6">
-        <v>1.604766287808082</v>
+        <v>1.602459148828121</v>
       </c>
       <c r="E6">
-        <v>1.413337397383989</v>
+        <v>1.409908246290728</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -473,16 +473,16 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>3.663586248703815</v>
+        <v>3.655791957161804</v>
       </c>
       <c r="C7">
-        <v>2.086232234693673</v>
+        <v>2.082638963899223</v>
       </c>
       <c r="D7">
-        <v>1.644232598380213</v>
+        <v>1.641837099424327</v>
       </c>
       <c r="E7">
-        <v>1.418515117739277</v>
+        <v>1.414435199910633</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -490,16 +490,16 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>1.626091624037675</v>
+        <v>1.61754885472335</v>
       </c>
       <c r="C8">
-        <v>1.336387960279253</v>
+        <v>1.331268593591207</v>
       </c>
       <c r="D8">
-        <v>1.263554553812462</v>
+        <v>1.25963316010294</v>
       </c>
       <c r="E8">
-        <v>1.29091888071782</v>
+        <v>1.286428854980599</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -507,16 +507,16 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>3.042592146016552</v>
+        <v>3.03186021144269</v>
       </c>
       <c r="C9">
-        <v>1.866576928441346</v>
+        <v>1.862728241502911</v>
       </c>
       <c r="D9">
-        <v>1.551566105915701</v>
+        <v>1.549120835106842</v>
       </c>
       <c r="E9">
-        <v>1.369327592533421</v>
+        <v>1.366023141857575</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -524,16 +524,16 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>3.695542325719942</v>
+        <v>3.678504460331955</v>
       </c>
       <c r="C10">
-        <v>2.091101641754152</v>
+        <v>2.084409928598445</v>
       </c>
       <c r="D10">
-        <v>1.643749464406628</v>
+        <v>1.639123914208648</v>
       </c>
       <c r="E10">
-        <v>1.413867566556316</v>
+        <v>1.409810408930862</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -541,16 +541,16 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>3.794002622841346</v>
+        <v>3.781325438004655</v>
       </c>
       <c r="C11">
-        <v>2.111054850538951</v>
+        <v>2.106358068430188</v>
       </c>
       <c r="D11">
-        <v>1.648484271474508</v>
+        <v>1.646314611292481</v>
       </c>
       <c r="E11">
-        <v>1.418065530165008</v>
+        <v>1.414360880002128</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -558,16 +558,16 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <v>3.603798705546136</v>
+        <v>3.573545316688634</v>
       </c>
       <c r="C12">
-        <v>2.067792022519864</v>
+        <v>2.058589535148215</v>
       </c>
       <c r="D12">
-        <v>1.635168488734647</v>
+        <v>1.6308334743146</v>
       </c>
       <c r="E12">
-        <v>1.40945584109297</v>
+        <v>1.405296775565357</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -575,16 +575,16 @@
         <v>12</v>
       </c>
       <c r="B13">
-        <v>3.678226731956694</v>
+        <v>3.657686037493022</v>
       </c>
       <c r="C13">
-        <v>2.086953281407617</v>
+        <v>2.079739547593903</v>
       </c>
       <c r="D13">
-        <v>1.641437892327913</v>
+        <v>1.636853583344017</v>
       </c>
       <c r="E13">
-        <v>1.41223740403062</v>
+        <v>1.408286739559427</v>
       </c>
     </row>
   </sheetData>

--- a/tests/vlaanderen/reference/resultaten/werk/concurrentie/inwoners/restdag/Ontpl_conc_Auto.xlsx
+++ b/tests/vlaanderen/reference/resultaten/werk/concurrentie/inwoners/restdag/Ontpl_conc_Auto.xlsx
@@ -388,13 +388,13 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>2.828655049581922</v>
+        <v>2.828655049581926</v>
       </c>
       <c r="C2">
-        <v>1.773799324762276</v>
+        <v>1.773799324762277</v>
       </c>
       <c r="D2">
-        <v>1.493186813606976</v>
+        <v>1.493186813606975</v>
       </c>
       <c r="E2">
         <v>1.320195973509991</v>
@@ -405,16 +405,16 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>2.883834815612763</v>
+        <v>2.883834815612765</v>
       </c>
       <c r="C3">
-        <v>1.790830877570518</v>
+        <v>1.790830877570517</v>
       </c>
       <c r="D3">
-        <v>1.500165029430642</v>
+        <v>1.500165029430641</v>
       </c>
       <c r="E3">
-        <v>1.325315907228027</v>
+        <v>1.325315907228028</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -422,10 +422,10 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>3.01732006345383</v>
+        <v>3.017320063453831</v>
       </c>
       <c r="C4">
-        <v>1.860444782376231</v>
+        <v>1.860444782376233</v>
       </c>
       <c r="D4">
         <v>1.549274810175597</v>
@@ -439,7 +439,7 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>3.380719459040112</v>
+        <v>3.380719459040115</v>
       </c>
       <c r="C5">
         <v>1.998626836058858</v>
@@ -456,16 +456,16 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>3.364883251118721</v>
+        <v>3.364883251118726</v>
       </c>
       <c r="C6">
-        <v>1.996492174193518</v>
+        <v>1.996492174193517</v>
       </c>
       <c r="D6">
-        <v>1.602459148828121</v>
+        <v>1.60245914882812</v>
       </c>
       <c r="E6">
-        <v>1.409908246290728</v>
+        <v>1.409908246290729</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -473,7 +473,7 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>3.655791957161804</v>
+        <v>3.655791957161806</v>
       </c>
       <c r="C7">
         <v>2.082638963899223</v>
@@ -490,7 +490,7 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>1.61754885472335</v>
+        <v>1.617548854723349</v>
       </c>
       <c r="C8">
         <v>1.331268593591207</v>
@@ -507,13 +507,13 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>3.03186021144269</v>
+        <v>3.031860211442694</v>
       </c>
       <c r="C9">
-        <v>1.862728241502911</v>
+        <v>1.862728241502912</v>
       </c>
       <c r="D9">
-        <v>1.549120835106842</v>
+        <v>1.549120835106843</v>
       </c>
       <c r="E9">
         <v>1.366023141857575</v>
@@ -524,16 +524,16 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>3.678504460331955</v>
+        <v>3.67850446033196</v>
       </c>
       <c r="C10">
         <v>2.084409928598445</v>
       </c>
       <c r="D10">
-        <v>1.639123914208648</v>
+        <v>1.639123914208649</v>
       </c>
       <c r="E10">
-        <v>1.409810408930862</v>
+        <v>1.409810408930863</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -541,16 +541,16 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>3.781325438004655</v>
+        <v>3.781325438004659</v>
       </c>
       <c r="C11">
-        <v>2.106358068430188</v>
+        <v>2.106358068430189</v>
       </c>
       <c r="D11">
         <v>1.646314611292481</v>
       </c>
       <c r="E11">
-        <v>1.414360880002128</v>
+        <v>1.414360880002127</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -558,16 +558,16 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <v>3.573545316688634</v>
+        <v>3.573545316688636</v>
       </c>
       <c r="C12">
-        <v>2.058589535148215</v>
+        <v>2.058589535148216</v>
       </c>
       <c r="D12">
         <v>1.6308334743146</v>
       </c>
       <c r="E12">
-        <v>1.405296775565357</v>
+        <v>1.405296775565356</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -575,10 +575,10 @@
         <v>12</v>
       </c>
       <c r="B13">
-        <v>3.657686037493022</v>
+        <v>3.657686037493024</v>
       </c>
       <c r="C13">
-        <v>2.079739547593903</v>
+        <v>2.079739547593902</v>
       </c>
       <c r="D13">
         <v>1.636853583344017</v>
